--- a/실무_엑셀_예제_파일/Chapter05/05-007.xlsx
+++ b/실무_엑셀_예제_파일/Chapter05/05-007.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652FE9F3-73E6-4314-8B31-39756E1259A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3336296B-A296-4C7D-B9BD-0E40E08BD3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22680" windowHeight="14736" xr2:uid="{D3AFBC96-0D8A-4B79-B5D5-C9AB1BC56F2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D3AFBC96-0D8A-4B79-B5D5-C9AB1BC56F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="리마트매출현황" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">리마트매출현황!$A$1:$J$64</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -676,7 +667,6 @@
   </si>
   <si>
     <t>매출이익률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -735,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,31 +735,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,31 +1061,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FF2CAC-3A4A-4DA2-A46D-99B1174F552E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="10" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.9140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.4140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1122,1914 +1100,2119 @@
       <c r="F1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>42693</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="5">
         <v>25</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="5">
         <v>6800</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="5">
         <v>200</v>
       </c>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="J2" s="6">
+        <f>I2/H2</f>
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>44099</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <v>90</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="5">
         <v>17100</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="5">
         <v>3080</v>
       </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J64" si="0">I3/H3</f>
+        <v>0.18011695906432748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>43728</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <v>90</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>99600</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="5">
         <v>4980</v>
       </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>43642</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>40</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <v>3391800</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="5">
         <v>440930</v>
       </c>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1299988206851819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>43033</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>10</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="5">
         <v>585600</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="5">
         <v>58560</v>
       </c>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>43958</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <v>15</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="5">
         <v>19200</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="5">
         <v>3650</v>
       </c>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19010416666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>42111</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="5">
         <v>10</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="5">
         <v>288200</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="5">
         <v>34580</v>
       </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11998612074947952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>43178</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="5">
         <v>100</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="5">
         <v>126400</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="5">
         <v>17700</v>
       </c>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14003164556962025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>42178</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="5">
         <v>75</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="5">
         <v>16100</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="5">
         <v>2090</v>
       </c>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1298136645962733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>43277</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <v>15</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="5">
         <v>1876800</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="5">
         <v>243980</v>
       </c>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12999786871270247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>42417</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="5">
         <v>55</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="5">
         <v>9400</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="5">
         <v>1130</v>
       </c>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1202127659574468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>43232</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="5">
         <v>35</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="5">
         <v>21400</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="5">
         <v>2780</v>
       </c>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12990654205607477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>42073</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="5">
         <v>15</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="5">
         <v>805100</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="5">
         <v>136870</v>
       </c>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.17000372624518692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>42022</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="5">
         <v>50</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="5">
         <v>24000</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="5">
         <v>720</v>
       </c>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>44133</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="5">
         <v>20</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="5">
         <v>1800</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="5">
         <v>70</v>
       </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>3.888888888888889E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>42768</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="5">
         <v>40</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="5">
         <v>1132900</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="5">
         <v>215250</v>
       </c>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18999911730955954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>43803</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="5">
         <v>100</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="5">
         <v>1002600</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="5">
         <v>190490</v>
       </c>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18999601037303013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>42739</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="5">
         <v>25</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="5">
         <v>233300</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="5">
         <v>11670</v>
       </c>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>5.0021431633090439E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>43180</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="5">
         <v>35</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="5">
         <v>161900</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="5">
         <v>32380</v>
       </c>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>43950</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="5">
         <v>85</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="5">
         <v>233200</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="5">
         <v>16320</v>
       </c>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>6.9982847341337903E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>42187</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="5">
         <v>35</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="5">
         <v>1053300</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="5">
         <v>42130</v>
       </c>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>3.9998101205734361E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>43926</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="5">
         <v>35</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="5">
         <v>448800</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="5">
         <v>53860</v>
       </c>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12000891265597148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>43317</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="5">
         <v>20</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="5">
         <v>66400</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="5">
         <v>7300</v>
       </c>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10993975903614457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>42630</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="5">
         <v>30</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="5">
         <v>32400</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="5">
         <v>5510</v>
       </c>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="J25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.17006172839506173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>43131</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="5">
         <v>80</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="5">
         <v>85700</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="5">
         <v>5140</v>
       </c>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+      <c r="J26" s="6">
+        <f t="shared" si="0"/>
+        <v>5.997666277712952E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>42235</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="5">
         <v>85</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="5">
         <v>42000</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="5">
         <v>7560</v>
       </c>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+      <c r="J27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>43582</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="5">
         <v>10</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="5">
         <v>351400</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="5">
         <v>17570</v>
       </c>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+      <c r="J28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>43097</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="5">
         <v>80</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="5">
         <v>24600</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="5">
         <v>1230</v>
       </c>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+      <c r="J29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>43148</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="5">
         <v>90</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="5">
         <v>78500</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="5">
         <v>7070</v>
       </c>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
+      <c r="J30" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0063694267515926E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>43772</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="5">
         <v>50</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="5">
         <v>10600</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="5">
         <v>420</v>
       </c>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
+      <c r="J31" s="6">
+        <f t="shared" si="0"/>
+        <v>3.962264150943396E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>43808</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="5">
         <v>95</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="5">
         <v>136600</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="5">
         <v>24590</v>
       </c>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
+      <c r="J32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18001464128843339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>43904</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="5">
         <v>10</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="5">
         <v>75700</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="5">
         <v>9080</v>
       </c>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11994715984147952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>43405</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="5">
         <v>45</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="5">
         <v>1149100</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="5">
         <v>137890</v>
       </c>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="5" t="s">
+      <c r="J34" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1199982595074406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>42117</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="5">
         <v>85</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="5">
         <v>82700</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="5">
         <v>9100</v>
       </c>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="5" t="s">
+      <c r="J35" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11003627569528417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>43729</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="5">
         <v>45</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="5">
         <v>16000</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="5">
         <v>960</v>
       </c>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="5" t="s">
+      <c r="J36" s="6">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>42029</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="E37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="5">
         <v>45</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="5">
         <v>61100</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="5">
         <v>12220</v>
       </c>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="5" t="s">
+      <c r="J37" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>43168</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="E38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="5">
         <v>40</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="5">
         <v>12800</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="5">
         <v>1660</v>
       </c>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="5" t="s">
+      <c r="J38" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12968750000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>43058</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="5">
         <v>40</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="5">
         <v>53700</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="5">
         <v>10740</v>
       </c>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
+      <c r="J39" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>42763</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="7" t="s">
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="5">
         <v>25</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="5">
         <v>8000</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="5">
         <v>1440</v>
       </c>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
+      <c r="J40" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>42506</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="5">
         <v>35</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="5">
         <v>99000</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="5">
         <v>14850</v>
       </c>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
+      <c r="J41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="3">
         <v>43539</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="5">
         <v>40</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="5">
         <v>33000</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="5">
         <v>1320</v>
       </c>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="5" t="s">
+      <c r="J42" s="6">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="3">
         <v>42541</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="7" t="s">
+      <c r="E43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="5">
         <v>95</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="5">
         <v>1207300</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="5">
         <v>120730</v>
       </c>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="5" t="s">
+      <c r="J43" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="3">
         <v>42926</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="7" t="s">
+      <c r="E44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="5">
         <v>50</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="5">
         <v>229400</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="5">
         <v>29820</v>
       </c>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="5" t="s">
+      <c r="J44" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12999128160418483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="3">
         <v>42767</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="E45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="5">
         <v>100</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="5">
         <v>997900</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="5">
         <v>159660</v>
       </c>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
+      <c r="J45" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15999599158232289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="3">
         <v>43768</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="E46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="5">
         <v>55</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="5">
         <v>3600</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="5">
         <v>140</v>
       </c>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="5" t="s">
+      <c r="J46" s="6">
+        <f t="shared" si="0"/>
+        <v>3.888888888888889E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>44174</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="E47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="5">
         <v>55</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="5">
         <v>2800</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="5">
         <v>170</v>
       </c>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="5" t="s">
+      <c r="J47" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0714285714285714E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="3">
         <v>43659</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="E48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="5">
         <v>100</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="5">
         <v>94900</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="5">
         <v>4750</v>
       </c>
-      <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="5" t="s">
+      <c r="J48" s="6">
+        <f t="shared" si="0"/>
+        <v>5.0052687038988408E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="3">
         <v>42898</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="5">
         <v>15</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="5">
         <v>35600</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="5">
         <v>1070</v>
       </c>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="5" t="s">
+      <c r="J49" s="6">
+        <f t="shared" si="0"/>
+        <v>3.0056179775280897E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>43661</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="7" t="s">
+      <c r="E50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="5">
         <v>10</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="5">
         <v>7500</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="5">
         <v>1350</v>
       </c>
-      <c r="J50" s="11"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="5" t="s">
+      <c r="J50" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>42845</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="7" t="s">
+      <c r="E51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="5">
         <v>40</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="5">
         <v>20400</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="5">
         <v>2040</v>
       </c>
-      <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="5" t="s">
+      <c r="J51" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="3">
         <v>44054</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="5">
         <v>35</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="5">
         <v>17300</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="5">
         <v>1560</v>
       </c>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="5" t="s">
+      <c r="J52" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0173410404624274E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="3">
         <v>42478</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="7" t="s">
+      <c r="E53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="5">
         <v>60</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="5">
         <v>210000</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="5">
         <v>25200</v>
       </c>
-      <c r="J53" s="11"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="5" t="s">
+      <c r="J53" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="3">
         <v>43651</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="5">
         <v>10</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="5">
         <v>50600</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="5">
         <v>6580</v>
       </c>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="5" t="s">
+      <c r="J54" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1300395256916996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="3">
         <v>43892</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="7" t="s">
+      <c r="E55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="5">
         <v>60</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="5">
         <v>49500</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="5">
         <v>8910</v>
       </c>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="5" t="s">
+      <c r="J55" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="3">
         <v>42678</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="E56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="5">
         <v>100</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="5">
         <v>16800</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="5">
         <v>2690</v>
       </c>
-      <c r="J56" s="11"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="5" t="s">
+      <c r="J56" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16011904761904761</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="3">
         <v>44031</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="7" t="s">
+      <c r="E57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="5">
         <v>40</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="5">
         <v>15400</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="5">
         <v>460</v>
       </c>
-      <c r="J57" s="11"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="5" t="s">
+      <c r="J57" s="6">
+        <f t="shared" si="0"/>
+        <v>2.987012987012987E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="3">
         <v>42640</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="5">
         <v>95</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="5">
         <v>234800</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="5">
         <v>39920</v>
       </c>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="5" t="s">
+      <c r="J58" s="6">
+        <f t="shared" si="0"/>
+        <v>0.17001703577512778</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="3">
         <v>43973</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="5">
         <v>65</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="5">
         <v>732500</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="5">
         <v>80580</v>
       </c>
-      <c r="J59" s="11"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="5" t="s">
+      <c r="J59" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11000682593856655</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="3">
         <v>43069</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="5">
         <v>60</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="5">
         <v>25000</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="5">
         <v>5000</v>
       </c>
-      <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61" s="5" t="s">
+      <c r="J60" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="3">
         <v>42427</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="7" t="s">
+      <c r="E61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="5">
         <v>60</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="5">
         <v>124700</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="5">
         <v>7480</v>
       </c>
-      <c r="J61" s="11"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A62" s="5" t="s">
+      <c r="J61" s="6">
+        <f t="shared" si="0"/>
+        <v>5.9983961507618283E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="3">
         <v>43770</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="7" t="s">
+      <c r="E62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="5">
         <v>25</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="5">
         <v>53300</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="5">
         <v>2130</v>
       </c>
-      <c r="J62" s="11"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="5" t="s">
+      <c r="J62" s="6">
+        <f t="shared" si="0"/>
+        <v>3.99624765478424E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="3">
         <v>42914</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="5">
         <v>5</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="5">
         <v>408300</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="5">
         <v>49000</v>
       </c>
-      <c r="J63" s="11"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="5" t="s">
+      <c r="J63" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12000979671809944</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="3">
         <v>43368</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="5">
         <v>30</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="5">
         <v>105200</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="5">
         <v>10520</v>
       </c>
-      <c r="J64" s="11"/>
+      <c r="J64" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J64" xr:uid="{56FF2CAC-3A4A-4DA2-A46D-99B1174F552E}">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="greaterThanOrEqual" val="0.1"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F64">
     <sortCondition ref="B1:B64"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J2:J64">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.05"/>
+        <cfvo type="num" val="0.1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/실무_엑셀_예제_파일/Chapter05/05-007.xlsx
+++ b/실무_엑셀_예제_파일/Chapter05/05-007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3336296B-A296-4C7D-B9BD-0E40E08BD3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9BB16B-8559-42C0-982E-7726DDB761BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D3AFBC96-0D8A-4B79-B5D5-C9AB1BC56F2A}"/>
   </bookViews>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1148,35 +1148,35 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B3" s="3">
-        <v>44099</v>
+        <v>42768</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H3" s="5">
-        <v>17100</v>
+        <v>1132900</v>
       </c>
       <c r="I3" s="5">
-        <v>3080</v>
+        <v>215250</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J64" si="0">I3/H3</f>
-        <v>0.18011695906432748</v>
+        <f>I3/H3</f>
+        <v>0.18999911730955954</v>
       </c>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
@@ -1208,11 +1208,11 @@
         <v>4980</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="0"/>
+        <f>I4/H4</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>194</v>
       </c>
@@ -1241,11 +1241,11 @@
         <v>440930</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="0"/>
+        <f>I5/H5</f>
         <v>0.1299988206851819</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>199</v>
       </c>
@@ -1274,44 +1274,44 @@
         <v>58560</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="0"/>
+        <f>I6/H6</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B7" s="3">
-        <v>43958</v>
+        <v>43803</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G7" s="5">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H7" s="5">
-        <v>19200</v>
+        <v>1002600</v>
       </c>
       <c r="I7" s="5">
-        <v>3650</v>
+        <v>190490</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.19010416666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+        <f>I7/H7</f>
+        <v>0.18999601037303013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -1340,11 +1340,11 @@
         <v>34580</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="0"/>
+        <f>I8/H8</f>
         <v>0.11998612074947952</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -1373,11 +1373,11 @@
         <v>17700</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="0"/>
+        <f>I9/H9</f>
         <v>0.14003164556962025</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>180</v>
       </c>
@@ -1406,11 +1406,11 @@
         <v>2090</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="0"/>
+        <f>I10/H10</f>
         <v>0.1298136645962733</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>180</v>
       </c>
@@ -1439,11 +1439,11 @@
         <v>243980</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="0"/>
+        <f>I11/H11</f>
         <v>0.12999786871270247</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>180</v>
       </c>
@@ -1472,11 +1472,11 @@
         <v>1130</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="0"/>
+        <f>I12/H12</f>
         <v>0.1202127659574468</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>180</v>
       </c>
@@ -1505,11 +1505,11 @@
         <v>2780</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="0"/>
+        <f>I13/H13</f>
         <v>0.12990654205607477</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>180</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>136870</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="0"/>
+        <f>I14/H14</f>
         <v>0.17000372624518692</v>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
         <v>720</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="0"/>
+        <f>I15/H15</f>
         <v>0.03</v>
       </c>
     </row>
@@ -1604,74 +1604,74 @@
         <v>70</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="0"/>
+        <f>I16/H16</f>
         <v>3.888888888888889E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B17" s="3">
-        <v>42768</v>
+        <v>43180</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G17" s="5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H17" s="5">
-        <v>1132900</v>
+        <v>161900</v>
       </c>
       <c r="I17" s="5">
-        <v>215250</v>
+        <v>32380</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18999911730955954</v>
+        <f>I17/H17</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B18" s="3">
-        <v>43803</v>
+        <v>43808</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G18" s="5">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H18" s="5">
-        <v>1002600</v>
+        <v>136600</v>
       </c>
       <c r="I18" s="5">
-        <v>190490</v>
+        <v>24590</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18999601037303013</v>
+        <f>I18/H18</f>
+        <v>0.18001464128843339</v>
       </c>
     </row>
     <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
@@ -1703,40 +1703,40 @@
         <v>11670</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="0"/>
+        <f>I19/H19</f>
         <v>5.0021431633090439E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B20" s="3">
-        <v>43180</v>
+        <v>42029</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G20" s="5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H20" s="5">
-        <v>161900</v>
+        <v>61100</v>
       </c>
       <c r="I20" s="5">
-        <v>32380</v>
+        <v>12220</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="0"/>
+        <f>I20/H20</f>
         <v>0.2</v>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
         <v>16320</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="0"/>
+        <f>I21/H21</f>
         <v>6.9982847341337903E-2</v>
       </c>
     </row>
@@ -1802,11 +1802,11 @@
         <v>42130</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="0"/>
+        <f>I22/H22</f>
         <v>3.9998101205734361E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>181</v>
       </c>
@@ -1835,11 +1835,11 @@
         <v>53860</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="0"/>
+        <f>I23/H23</f>
         <v>0.12000891265597148</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>181</v>
       </c>
@@ -1868,11 +1868,11 @@
         <v>7300</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="0"/>
+        <f>I24/H24</f>
         <v>0.10993975903614457</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>181</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>5510</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="0"/>
+        <f>I25/H25</f>
         <v>0.17006172839506173</v>
       </c>
     </row>
@@ -1934,41 +1934,41 @@
         <v>5140</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="0"/>
+        <f>I26/H26</f>
         <v>5.997666277712952E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B27" s="3">
-        <v>42235</v>
+        <v>43058</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G27" s="5">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H27" s="5">
-        <v>42000</v>
+        <v>53700</v>
       </c>
       <c r="I27" s="5">
-        <v>7560</v>
+        <v>10740</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
+        <f>I27/H27</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
@@ -2000,7 +2000,7 @@
         <v>17570</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="0"/>
+        <f>I28/H28</f>
         <v>0.05</v>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
         <v>1230</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="0"/>
+        <f>I29/H29</f>
         <v>0.05</v>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         <v>7070</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="0"/>
+        <f>I30/H30</f>
         <v>9.0063694267515926E-2</v>
       </c>
     </row>
@@ -2099,44 +2099,44 @@
         <v>420</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="0"/>
+        <f>I31/H31</f>
         <v>3.962264150943396E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B32" s="3">
-        <v>43808</v>
+        <v>43892</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G32" s="5">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="H32" s="5">
-        <v>136600</v>
+        <v>49500</v>
       </c>
       <c r="I32" s="5">
-        <v>24590</v>
+        <v>8910</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18001464128843339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+        <f>I32/H32</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>189</v>
       </c>
@@ -2165,11 +2165,11 @@
         <v>9080</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="0"/>
+        <f>I33/H33</f>
         <v>0.11994715984147952</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>189</v>
       </c>
@@ -2198,11 +2198,11 @@
         <v>137890</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="0"/>
+        <f>I34/H34</f>
         <v>0.1199982595074406</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>202</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>9100</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="0"/>
+        <f>I35/H35</f>
         <v>0.11003627569528417</v>
       </c>
     </row>
@@ -2264,44 +2264,44 @@
         <v>960</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="0"/>
+        <f>I36/H36</f>
         <v>0.06</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B37" s="3">
-        <v>42029</v>
+        <v>42235</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G37" s="5">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="H37" s="5">
-        <v>61100</v>
+        <v>42000</v>
       </c>
       <c r="I37" s="5">
-        <v>12220</v>
+        <v>7560</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+        <f>I37/H37</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>192</v>
       </c>
@@ -2330,77 +2330,77 @@
         <v>1660</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="0"/>
+        <f>I38/H38</f>
         <v>0.12968750000000001</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B39" s="3">
-        <v>43058</v>
+        <v>43069</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G39" s="5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H39" s="5">
-        <v>53700</v>
+        <v>25000</v>
       </c>
       <c r="I39" s="5">
-        <v>10740</v>
+        <v>5000</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="0"/>
+        <f>I39/H39</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B40" s="3">
-        <v>42763</v>
+        <v>43958</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G40" s="5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H40" s="5">
-        <v>8000</v>
+        <v>19200</v>
       </c>
       <c r="I40" s="5">
-        <v>1440</v>
+        <v>3650</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+        <f>I40/H40</f>
+        <v>0.19010416666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>184</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>14850</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="0"/>
+        <f>I41/H41</f>
         <v>0.15</v>
       </c>
     </row>
@@ -2462,11 +2462,11 @@
         <v>1320</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="0"/>
+        <f>I42/H42</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>197</v>
       </c>
@@ -2495,11 +2495,11 @@
         <v>120730</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="0"/>
+        <f>I43/H43</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>197</v>
       </c>
@@ -2528,11 +2528,11 @@
         <v>29820</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="0"/>
+        <f>I44/H44</f>
         <v>0.12999128160418483</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>185</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>159660</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="0"/>
+        <f>I45/H45</f>
         <v>0.15999599158232289</v>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
         <v>140</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="0"/>
+        <f>I46/H46</f>
         <v>3.888888888888889E-2</v>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
         <v>170</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="0"/>
+        <f>I47/H47</f>
         <v>6.0714285714285714E-2</v>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
         <v>4750</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="0"/>
+        <f>I48/H48</f>
         <v>5.0052687038988408E-2</v>
       </c>
     </row>
@@ -2693,44 +2693,44 @@
         <v>1070</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="0"/>
+        <f>I49/H49</f>
         <v>3.0056179775280897E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B50" s="3">
-        <v>43661</v>
+        <v>44099</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G50" s="5">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="H50" s="5">
-        <v>7500</v>
+        <v>17100</v>
       </c>
       <c r="I50" s="5">
-        <v>1350</v>
+        <v>3080</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+        <f>I50/H50</f>
+        <v>0.18011695906432748</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>186</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>2040</v>
       </c>
       <c r="J51" s="6">
-        <f t="shared" si="0"/>
+        <f>I51/H51</f>
         <v>0.1</v>
       </c>
     </row>
@@ -2792,11 +2792,11 @@
         <v>1560</v>
       </c>
       <c r="J52" s="6">
-        <f t="shared" si="0"/>
+        <f>I52/H52</f>
         <v>9.0173410404624274E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>186</v>
       </c>
@@ -2825,11 +2825,11 @@
         <v>25200</v>
       </c>
       <c r="J53" s="6">
-        <f t="shared" si="0"/>
+        <f>I53/H53</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>186</v>
       </c>
@@ -2858,44 +2858,44 @@
         <v>6580</v>
       </c>
       <c r="J54" s="6">
-        <f t="shared" si="0"/>
+        <f>I54/H54</f>
         <v>0.1300395256916996</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B55" s="3">
-        <v>43892</v>
+        <v>42763</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G55" s="5">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H55" s="5">
-        <v>49500</v>
+        <v>8000</v>
       </c>
       <c r="I55" s="5">
-        <v>8910</v>
+        <v>1440</v>
       </c>
       <c r="J55" s="6">
-        <f t="shared" si="0"/>
+        <f>I55/H55</f>
         <v>0.18</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>186</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>2690</v>
       </c>
       <c r="J56" s="6">
-        <f t="shared" si="0"/>
+        <f>I56/H56</f>
         <v>0.16011904761904761</v>
       </c>
     </row>
@@ -2957,11 +2957,11 @@
         <v>460</v>
       </c>
       <c r="J57" s="6">
-        <f t="shared" si="0"/>
+        <f>I57/H57</f>
         <v>2.987012987012987E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>191</v>
       </c>
@@ -2990,11 +2990,11 @@
         <v>39920</v>
       </c>
       <c r="J58" s="6">
-        <f t="shared" si="0"/>
+        <f>I58/H58</f>
         <v>0.17001703577512778</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>191</v>
       </c>
@@ -3023,41 +3023,41 @@
         <v>80580</v>
       </c>
       <c r="J59" s="6">
-        <f t="shared" si="0"/>
+        <f>I59/H59</f>
         <v>0.11000682593856655</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B60" s="3">
-        <v>43069</v>
+        <v>43661</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G60" s="5">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H60" s="5">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="I60" s="5">
-        <v>5000</v>
+        <v>1350</v>
       </c>
       <c r="J60" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>I60/H60</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
@@ -3089,7 +3089,7 @@
         <v>7480</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J64" si="0">I61/H61</f>
         <v>5.9983961507618283E-2</v>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
         <v>3.99624765478424E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>200</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>0.12000979671809944</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>200</v>
       </c>
@@ -3195,17 +3195,18 @@
   </sheetData>
   <autoFilter ref="A1:J64" xr:uid="{56FF2CAC-3A4A-4DA2-A46D-99B1174F552E}">
     <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="greaterThanOrEqual" val="0.1"/>
-      </customFilters>
+      <top10 val="10" filterVal="0.18"/>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J60">
+      <sortCondition descending="1" ref="I1:I64"/>
+    </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F64">
     <sortCondition ref="B1:B64"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J64">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="2">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0.05"/>
@@ -3213,7 +3214,40 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CF178C30-2C91-4B53-873F-1DF3D5F1AD99}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF178C30-2C91-4B53-873F-1DF3D5F1AD99}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>